--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il1a-Il1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il1a-Il1r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Il1r1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.072082666666666</v>
+        <v>0.038687</v>
       </c>
       <c r="H2">
-        <v>12.216248</v>
+        <v>0.116061</v>
       </c>
       <c r="I2">
-        <v>0.3979924983064648</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="J2">
-        <v>0.3979924983064649</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.79587766666667</v>
+        <v>30.60409033333334</v>
       </c>
       <c r="N2">
-        <v>53.38763299999999</v>
+        <v>91.81227100000001</v>
       </c>
       <c r="O2">
-        <v>0.1793479316144739</v>
+        <v>0.2776440509987301</v>
       </c>
       <c r="P2">
-        <v>0.179347931614474</v>
+        <v>0.27764405099873</v>
       </c>
       <c r="Q2">
-        <v>72.46628498455377</v>
+        <v>1.183980442725667</v>
       </c>
       <c r="R2">
-        <v>652.1965648609838</v>
+        <v>10.655823984531</v>
       </c>
       <c r="S2">
-        <v>0.07137913136934147</v>
+        <v>0.001853542436830151</v>
       </c>
       <c r="T2">
-        <v>0.07137913136934151</v>
+        <v>0.00185354243683015</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.072082666666666</v>
+        <v>0.038687</v>
       </c>
       <c r="H3">
-        <v>12.216248</v>
+        <v>0.116061</v>
       </c>
       <c r="I3">
-        <v>0.3979924983064648</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="J3">
-        <v>0.3979924983064649</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>217.185554</v>
       </c>
       <c r="O3">
-        <v>0.7296030503252249</v>
+        <v>0.6567779706806668</v>
       </c>
       <c r="P3">
-        <v>0.7296030503252251</v>
+        <v>0.6567779706806667</v>
       </c>
       <c r="Q3">
-        <v>294.7991766312657</v>
+        <v>2.800752509199333</v>
       </c>
       <c r="R3">
-        <v>2653.192589681392</v>
+        <v>25.206772582794</v>
       </c>
       <c r="S3">
-        <v>0.2903765407709536</v>
+        <v>0.004384627856612611</v>
       </c>
       <c r="T3">
-        <v>0.2903765407709538</v>
+        <v>0.00438462785661261</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.072082666666666</v>
+        <v>0.038687</v>
       </c>
       <c r="H4">
-        <v>12.216248</v>
+        <v>0.116061</v>
       </c>
       <c r="I4">
-        <v>0.3979924983064648</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="J4">
-        <v>0.3979924983064649</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.257112</v>
+        <v>0.371039</v>
       </c>
       <c r="N4">
-        <v>0.771336</v>
+        <v>1.113117</v>
       </c>
       <c r="O4">
-        <v>0.00259119028895291</v>
+        <v>0.003366111193519582</v>
       </c>
       <c r="P4">
-        <v>0.00259119028895291</v>
+        <v>0.003366111193519582</v>
       </c>
       <c r="Q4">
-        <v>1.046981318592</v>
+        <v>0.014354385793</v>
       </c>
       <c r="R4">
-        <v>9.422831867327998</v>
+        <v>0.129189472137</v>
       </c>
       <c r="S4">
-        <v>0.001031274296687819</v>
+        <v>2.247204621108943E-05</v>
       </c>
       <c r="T4">
-        <v>0.001031274296687819</v>
+        <v>2.247204621108943E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>4.072082666666666</v>
+        <v>0.038687</v>
       </c>
       <c r="H5">
-        <v>12.216248</v>
+        <v>0.116061</v>
       </c>
       <c r="I5">
-        <v>0.3979924983064648</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="J5">
-        <v>0.3979924983064649</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.314158666666666</v>
+        <v>6.687497333333333</v>
       </c>
       <c r="N5">
-        <v>24.942476</v>
+        <v>20.062492</v>
       </c>
       <c r="O5">
-        <v>0.08379059397414486</v>
+        <v>0.06066979382319835</v>
       </c>
       <c r="P5">
-        <v>0.08379059397414489</v>
+        <v>0.06066979382319834</v>
       </c>
       <c r="Q5">
-        <v>33.85594139444976</v>
+        <v>0.2587192093346666</v>
       </c>
       <c r="R5">
-        <v>304.7034725500479</v>
+        <v>2.328472884012</v>
       </c>
       <c r="S5">
-        <v>0.03334802783035253</v>
+        <v>0.0004050295228027351</v>
       </c>
       <c r="T5">
-        <v>0.03334802783035255</v>
+        <v>0.000405029522802735</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>4.072082666666666</v>
+        <v>0.038687</v>
       </c>
       <c r="H6">
-        <v>12.216248</v>
+        <v>0.116061</v>
       </c>
       <c r="I6">
-        <v>0.3979924983064648</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="J6">
-        <v>0.3979924983064649</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4631083333333333</v>
+        <v>0.1699793333333333</v>
       </c>
       <c r="N6">
-        <v>1.389325</v>
+        <v>0.509938</v>
       </c>
       <c r="O6">
-        <v>0.004667233797203165</v>
+        <v>0.001542073303885386</v>
       </c>
       <c r="P6">
-        <v>0.004667233797203166</v>
+        <v>0.001542073303885386</v>
       </c>
       <c r="Q6">
-        <v>1.885815416955555</v>
+        <v>0.006575990468666667</v>
       </c>
       <c r="R6">
-        <v>16.9723387526</v>
+        <v>0.059183914218</v>
       </c>
       <c r="S6">
-        <v>0.001857524039129256</v>
+        <v>1.029483001408704E-05</v>
       </c>
       <c r="T6">
-        <v>0.001857524039129257</v>
+        <v>1.029483001408704E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.159473666666667</v>
+        <v>2.929373</v>
       </c>
       <c r="H7">
-        <v>18.478421</v>
+        <v>8.788119</v>
       </c>
       <c r="I7">
-        <v>0.6020075016935351</v>
+        <v>0.5055030521317986</v>
       </c>
       <c r="J7">
-        <v>0.6020075016935352</v>
+        <v>0.5055030521317986</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.79587766666667</v>
+        <v>30.60409033333334</v>
       </c>
       <c r="N7">
-        <v>53.38763299999999</v>
+        <v>91.81227100000001</v>
       </c>
       <c r="O7">
-        <v>0.1793479316144739</v>
+        <v>0.2776440509987301</v>
       </c>
       <c r="P7">
-        <v>0.179347931614474</v>
+        <v>0.27764405099873</v>
       </c>
       <c r="Q7">
-        <v>109.6132398630548</v>
+        <v>89.65079591202768</v>
       </c>
       <c r="R7">
-        <v>986.519158767493</v>
+        <v>806.8571632082491</v>
       </c>
       <c r="S7">
-        <v>0.1079688002451324</v>
+        <v>0.1403499151860948</v>
       </c>
       <c r="T7">
-        <v>0.1079688002451325</v>
+        <v>0.1403499151860948</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.159473666666667</v>
+        <v>2.929373</v>
       </c>
       <c r="H8">
-        <v>18.478421</v>
+        <v>8.788119</v>
       </c>
       <c r="I8">
-        <v>0.6020075016935351</v>
+        <v>0.5055030521317986</v>
       </c>
       <c r="J8">
-        <v>0.6020075016935352</v>
+        <v>0.5055030521317986</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>217.185554</v>
       </c>
       <c r="O8">
-        <v>0.7296030503252249</v>
+        <v>0.6567779706806668</v>
       </c>
       <c r="P8">
-        <v>0.7296030503252251</v>
+        <v>0.6567779706806667</v>
       </c>
       <c r="Q8">
-        <v>445.9162335478038</v>
+        <v>212.0724992925473</v>
       </c>
       <c r="R8">
-        <v>4013.246101930234</v>
+        <v>1908.652493632926</v>
       </c>
       <c r="S8">
-        <v>0.4392265095542712</v>
+        <v>0.332003268752006</v>
       </c>
       <c r="T8">
-        <v>0.4392265095542714</v>
+        <v>0.3320032687520059</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.159473666666667</v>
+        <v>2.929373</v>
       </c>
       <c r="H9">
-        <v>18.478421</v>
+        <v>8.788119</v>
       </c>
       <c r="I9">
-        <v>0.6020075016935351</v>
+        <v>0.5055030521317986</v>
       </c>
       <c r="J9">
-        <v>0.6020075016935352</v>
+        <v>0.5055030521317986</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.257112</v>
+        <v>0.371039</v>
       </c>
       <c r="N9">
-        <v>0.771336</v>
+        <v>1.113117</v>
       </c>
       <c r="O9">
-        <v>0.00259119028895291</v>
+        <v>0.003366111193519582</v>
       </c>
       <c r="P9">
-        <v>0.00259119028895291</v>
+        <v>0.003366111193519582</v>
       </c>
       <c r="Q9">
-        <v>1.583674593384</v>
+        <v>1.086911628547</v>
       </c>
       <c r="R9">
-        <v>14.253071340456</v>
+        <v>9.782204656923</v>
       </c>
       <c r="S9">
-        <v>0.00155991599226509</v>
+        <v>0.00170157948213916</v>
       </c>
       <c r="T9">
-        <v>0.001559915992265091</v>
+        <v>0.00170157948213916</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.159473666666667</v>
+        <v>2.929373</v>
       </c>
       <c r="H10">
-        <v>18.478421</v>
+        <v>8.788119</v>
       </c>
       <c r="I10">
-        <v>0.6020075016935351</v>
+        <v>0.5055030521317986</v>
       </c>
       <c r="J10">
-        <v>0.6020075016935352</v>
+        <v>0.5055030521317986</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.314158666666666</v>
+        <v>6.687497333333333</v>
       </c>
       <c r="N10">
-        <v>24.942476</v>
+        <v>20.062492</v>
       </c>
       <c r="O10">
-        <v>0.08379059397414486</v>
+        <v>0.06066979382319835</v>
       </c>
       <c r="P10">
-        <v>0.08379059397414489</v>
+        <v>0.06066979382319834</v>
       </c>
       <c r="Q10">
-        <v>51.21084136782177</v>
+        <v>19.59017412583867</v>
       </c>
       <c r="R10">
-        <v>460.897572310396</v>
+        <v>176.311567132548</v>
       </c>
       <c r="S10">
-        <v>0.05044256614379233</v>
+        <v>0.03066876594983371</v>
       </c>
       <c r="T10">
-        <v>0.05044256614379235</v>
+        <v>0.0306687659498337</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.929373</v>
+      </c>
+      <c r="H11">
+        <v>8.788119</v>
+      </c>
+      <c r="I11">
+        <v>0.5055030521317986</v>
+      </c>
+      <c r="J11">
+        <v>0.5055030521317986</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.1699793333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.509938</v>
+      </c>
+      <c r="O11">
+        <v>0.001542073303885386</v>
+      </c>
+      <c r="P11">
+        <v>0.001542073303885386</v>
+      </c>
+      <c r="Q11">
+        <v>0.4979328696246667</v>
+      </c>
+      <c r="R11">
+        <v>4.481395826622</v>
+      </c>
+      <c r="S11">
+        <v>0.0007795227617250291</v>
+      </c>
+      <c r="T11">
+        <v>0.0007795227617250289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.826906</v>
+      </c>
+      <c r="H12">
+        <v>8.480718</v>
+      </c>
+      <c r="I12">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="J12">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>30.60409033333334</v>
+      </c>
+      <c r="N12">
+        <v>91.81227100000001</v>
+      </c>
+      <c r="O12">
+        <v>0.2776440509987301</v>
+      </c>
+      <c r="P12">
+        <v>0.27764405099873</v>
+      </c>
+      <c r="Q12">
+        <v>86.514886587842</v>
+      </c>
+      <c r="R12">
+        <v>778.6339792905781</v>
+      </c>
+      <c r="S12">
+        <v>0.1354405933758051</v>
+      </c>
+      <c r="T12">
+        <v>0.1354405933758051</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.826906</v>
+      </c>
+      <c r="H13">
+        <v>8.480718</v>
+      </c>
+      <c r="I13">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="J13">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>72.39518466666667</v>
+      </c>
+      <c r="N13">
+        <v>217.185554</v>
+      </c>
+      <c r="O13">
+        <v>0.6567779706806668</v>
+      </c>
+      <c r="P13">
+        <v>0.6567779706806667</v>
+      </c>
+      <c r="Q13">
+        <v>204.654381905308</v>
+      </c>
+      <c r="R13">
+        <v>1841.889437147772</v>
+      </c>
+      <c r="S13">
+        <v>0.3203900740720482</v>
+      </c>
+      <c r="T13">
+        <v>0.3203900740720482</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>6.159473666666667</v>
-      </c>
-      <c r="H11">
-        <v>18.478421</v>
-      </c>
-      <c r="I11">
-        <v>0.6020075016935351</v>
-      </c>
-      <c r="J11">
-        <v>0.6020075016935352</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.4631083333333333</v>
-      </c>
-      <c r="N11">
-        <v>1.389325</v>
-      </c>
-      <c r="O11">
-        <v>0.004667233797203165</v>
-      </c>
-      <c r="P11">
-        <v>0.004667233797203166</v>
-      </c>
-      <c r="Q11">
-        <v>2.852503583980555</v>
-      </c>
-      <c r="R11">
-        <v>25.672532255825</v>
-      </c>
-      <c r="S11">
-        <v>0.002809709758073909</v>
-      </c>
-      <c r="T11">
-        <v>0.00280970975807391</v>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.826906</v>
+      </c>
+      <c r="H14">
+        <v>8.480718</v>
+      </c>
+      <c r="I14">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="J14">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.371039</v>
+      </c>
+      <c r="N14">
+        <v>1.113117</v>
+      </c>
+      <c r="O14">
+        <v>0.003366111193519582</v>
+      </c>
+      <c r="P14">
+        <v>0.003366111193519582</v>
+      </c>
+      <c r="Q14">
+        <v>1.048892375334</v>
+      </c>
+      <c r="R14">
+        <v>9.440031378005999</v>
+      </c>
+      <c r="S14">
+        <v>0.001642059665169333</v>
+      </c>
+      <c r="T14">
+        <v>0.001642059665169333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.826906</v>
+      </c>
+      <c r="H15">
+        <v>8.480718</v>
+      </c>
+      <c r="I15">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="J15">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.687497333333333</v>
+      </c>
+      <c r="N15">
+        <v>20.062492</v>
+      </c>
+      <c r="O15">
+        <v>0.06066979382319835</v>
+      </c>
+      <c r="P15">
+        <v>0.06066979382319834</v>
+      </c>
+      <c r="Q15">
+        <v>18.904926336584</v>
+      </c>
+      <c r="R15">
+        <v>170.144337029256</v>
+      </c>
+      <c r="S15">
+        <v>0.02959599835056191</v>
+      </c>
+      <c r="T15">
+        <v>0.0295959983505619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.826906</v>
+      </c>
+      <c r="H16">
+        <v>8.480718</v>
+      </c>
+      <c r="I16">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="J16">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1699793333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.509938</v>
+      </c>
+      <c r="O16">
+        <v>0.001542073303885386</v>
+      </c>
+      <c r="P16">
+        <v>0.001542073303885386</v>
+      </c>
+      <c r="Q16">
+        <v>0.480515597276</v>
+      </c>
+      <c r="R16">
+        <v>4.324640375484</v>
+      </c>
+      <c r="S16">
+        <v>0.0007522557121462699</v>
+      </c>
+      <c r="T16">
+        <v>0.0007522557121462696</v>
       </c>
     </row>
   </sheetData>
